--- a/Experiment_2_LNDF/Experiment_2_LNDF.xlsx
+++ b/Experiment_2_LNDF/Experiment_2_LNDF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node\bpmn-chatbot-archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node\bpmn-chatbot-archive\Experiment_2_LNDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325DD369-C2AC-4547-8F04-A8D15067D3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F504EC09-D158-4EBE-B4CA-8DCDBF864732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21255" yWindow="2955" windowWidth="30765" windowHeight="17220" xr2:uid="{2AF328AC-38BD-4250-BE92-8DE1C4A790C2}"/>
+    <workbookView xWindow="15180" yWindow="2835" windowWidth="29475" windowHeight="17220" activeTab="4" xr2:uid="{2AF328AC-38BD-4250-BE92-8DE1C4A790C2}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0014123-FA4B-4065-A192-557292553345}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -3455,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="M2">
-        <f>(I2+J2+K2)/3</f>
+        <f t="shared" ref="M2:M28" si="0">(I2+J2+K2)/3</f>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <f>(I3+J3+K3)/3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <f>(I4+J4+K4)/3</f>
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
       <c r="M5">
-        <f>(I5+J5+K5)/3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <f>(I6+J6+K6)/3</f>
+        <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <f>(I7+J7+K7)/3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <f>(I8+J8+K8)/3</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <f>(I9+J9+K9)/3</f>
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="M10">
-        <f>(I10+J10+K10)/3</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
         <v>5</v>
       </c>
       <c r="M11">
-        <f>(I11+J11+K11)/3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="M12">
-        <f>(I12+J12+K12)/3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <f>(I13+J13+K13)/3</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <f>(I14+J14+K14)/3</f>
+        <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <f>(I15+J15+K15)/3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
         <v>5</v>
       </c>
       <c r="M16">
-        <f>(I16+J16+K16)/3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="M17">
-        <f>(I17+J17+K17)/3</f>
+        <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>5</v>
       </c>
       <c r="M18">
-        <f>(I18+J18+K18)/3</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <f>(I19+J19+K19)/3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
         <v>5</v>
       </c>
       <c r="M20">
-        <f>(I20+J20+K20)/3</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <f>(I21+J21+K21)/3</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="M22">
-        <f>(I22+J22+K22)/3</f>
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="M23">
-        <f>(I23+J23+K23)/3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
         <v>5</v>
       </c>
       <c r="M24">
-        <f>(I24+J24+K24)/3</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <f>(I25+J25+K25)/3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="M26">
-        <f>(I26+J26+K26)/3</f>
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <f>(I27+J27+K27)/3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <f>(I28+J28+K28)/3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -4556,39 +4556,39 @@
         <v>101</v>
       </c>
       <c r="E42">
-        <f>AVERAGE(E2:E41)</f>
+        <f t="shared" ref="E42:M42" si="1">AVERAGE(E2:E41)</f>
         <v>4.0740740740740744</v>
       </c>
       <c r="F42">
-        <f>AVERAGE(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>3.9629629629629628</v>
       </c>
       <c r="G42">
-        <f>AVERAGE(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>4.2222222222222223</v>
       </c>
       <c r="H42">
-        <f>AVERAGE(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>4.6296296296296298</v>
       </c>
       <c r="I42">
-        <f>AVERAGE(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>4.3703703703703702</v>
       </c>
       <c r="J42">
-        <f>AVERAGE(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>4.0740740740740744</v>
       </c>
       <c r="K42">
-        <f>AVERAGE(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>4.4074074074074074</v>
       </c>
       <c r="L42">
-        <f>AVERAGE(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>4.1111111111111107</v>
       </c>
       <c r="M42">
-        <f>AVERAGE(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>4.283950617283951</v>
       </c>
     </row>
@@ -4608,27 +4608,27 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f>_xlfn.STDEV.P(H2:H41)</f>
+        <f t="shared" ref="H43:M43" si="2">_xlfn.STDEV.P(H2:H41)</f>
         <v>0.55431961285539877</v>
       </c>
       <c r="I43">
-        <f>_xlfn.STDEV.P(I2:I41)</f>
+        <f t="shared" si="2"/>
         <v>0.72766232238475925</v>
       </c>
       <c r="J43">
-        <f>_xlfn.STDEV.P(J2:J41)</f>
+        <f t="shared" si="2"/>
         <v>0.81312957037407962</v>
       </c>
       <c r="K43">
-        <f>_xlfn.STDEV.P(K2:K41)</f>
+        <f t="shared" si="2"/>
         <v>0.7332959212304937</v>
       </c>
       <c r="L43">
-        <f>_xlfn.STDEV.P(L2:L41)</f>
+        <f t="shared" si="2"/>
         <v>1.1653431646335017</v>
       </c>
       <c r="M43">
-        <f>_xlfn.STDEV.P(M2:M41)</f>
+        <f t="shared" si="2"/>
         <v>0.59284973844656474</v>
       </c>
     </row>
@@ -4637,39 +4637,39 @@
         <v>103</v>
       </c>
       <c r="E44">
-        <f>MEDIAN(E2:E41)</f>
+        <f t="shared" ref="E44:M44" si="3">MEDIAN(E2:E41)</f>
         <v>4</v>
       </c>
       <c r="F44">
-        <f>MEDIAN(F2:F41)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G44">
-        <f>MEDIAN(G2:G41)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H44">
-        <f>MEDIAN(H2:H41)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I44">
-        <f>MEDIAN(I2:I41)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J44">
-        <f>MEDIAN(J2:J41)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K44">
-        <f>MEDIAN(K2:K41)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L44">
-        <f>MEDIAN(L2:L41)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M44">
-        <f>MEDIAN(M2:M41)</f>
+        <f t="shared" si="3"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3723110-6FE4-428B-8C17-D106E890544B}">
   <dimension ref="A2:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -5640,8 +5640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA34167-C8A5-4712-A2D2-B4DEE966916C}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,8 +5657,8 @@
         <v>6</v>
       </c>
       <c r="C1">
-        <f>B1/38</f>
-        <v>0.15789473684210525</v>
+        <f>B1/40</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5694,8 +5694,8 @@
         <v>8</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/38</f>
-        <v>0.21052631578947367</v>
+        <f>B7/40</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5741,8 +5741,8 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/38</f>
-        <v>0.34210526315789475</v>
+        <f>B15/40</f>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5813,8 +5813,8 @@
         <v>6</v>
       </c>
       <c r="C28" s="3">
-        <f>B28/38</f>
-        <v>0.15789473684210525</v>
+        <f>B28/40</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5850,7 +5850,8 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <f>B34/40</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5876,6 +5877,13 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f>2/40</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
